--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.964399999999988</v>
+        <v>6.028799999999987</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.2471</v>
+        <v>9.124100000000004</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.320400000000005</v>
+        <v>9.495200000000004</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.739699999999995</v>
+        <v>5.87739999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.250100000000001</v>
+        <v>5.214800000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.772499999999993</v>
+        <v>5.89929999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
